--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_2_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_2_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.37000000000006</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2046438255101467</v>
+        <v>0.2391504818766426</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2046438255101467</v>
+        <v>0.2391504818766426</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.718225580789894</v>
+        <v>5.704310742170031</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.916488588037784, 14.352939749617573]</t>
+          <t>[-2.9959608391902526, 14.404582323530313]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1889768488080739</v>
+        <v>0.1933312787628836</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1889768488080739</v>
+        <v>0.1933312787628836</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.006315965113847</v>
+        <v>-1.132105460753078</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.14476388131266, 2.1321319510849657]</t>
+          <t>[-4.27055337695189, 2.0063424554457328]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.5216855993401073</v>
+        <v>0.4712762404978403</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5216855993401073</v>
+        <v>0.4712762404978403</v>
       </c>
       <c r="T2" t="n">
-        <v>13.14151239176404</v>
+        <v>14.5014685500993</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.659680669772726, 17.623344113755344]</t>
+          <t>[9.824268653967842, 19.178668446230752]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.309112791034408e-07</v>
+        <v>1.351918343939218e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>4.309112791034408e-07</v>
+        <v>1.351918343939218e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>3.58278278278279</v>
+        <v>4.039639639639653</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.591021021021046</v>
+        <v>-7.159139139139155</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.75658658658663</v>
+        <v>15.23841841841846</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.37000000000006</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4465926989799897</v>
+        <v>0.01413116465788089</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4465926989799897</v>
+        <v>0.01413116465788089</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.095376391267582</v>
+        <v>8.095408854371842</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-4.534790092344302, 12.725542874879466]</t>
+          <t>[0.8900292265941125, 15.30078848214957]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3442917260006559</v>
+        <v>0.02851592283001714</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3442917260006559</v>
+        <v>0.02851592283001714</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.8302106712189241</v>
+        <v>-0.9811580659860013</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.9686585874177367, 2.3082372449798885]</t>
+          <t>[-1.8742634850245414, -0.08805264694746118]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5968011373281703</v>
+        <v>0.03203605084107464</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5968011373281703</v>
+        <v>0.03203605084107464</v>
       </c>
       <c r="T3" t="n">
-        <v>11.34752562502986</v>
+        <v>12.89347269456644</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.759436294793124, 15.935614955266603]</t>
+          <t>[9.135909353204287, 16.651036035928584]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.786730589267378e-06</v>
+        <v>1.380695779928942e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>9.786730589267378e-06</v>
+        <v>1.380695779928942e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>2.955795795795805</v>
+        <v>3.501021021021032</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.218008008008029</v>
+        <v>0.3141941941941946</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.12959959959964</v>
+        <v>6.687847847847869</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.37000000000006</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5532479151821257</v>
+        <v>0.5378810690737265</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5532479151821257</v>
+        <v>0.5378810690737265</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3.655315362490581</v>
+        <v>3.731189148279495</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-5.68725802974109, 12.99788875472225]</t>
+          <t>[-5.7644181687102645, 13.226796465269256]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.4348135330520657</v>
+        <v>0.4328515901073988</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4348135330520657</v>
+        <v>0.4328515901073988</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.8427896207828471</v>
+        <v>-0.6792632764518469</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.9812375369816593, 2.295658295415965]</t>
+          <t>[-3.8114217178686984, 2.4528951649650046]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5912705217958192</v>
+        <v>0.6643499444344561</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5912705217958192</v>
+        <v>0.6643499444344561</v>
       </c>
       <c r="T4" t="n">
-        <v>11.93482551019622</v>
+        <v>11.33176901418259</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.148120769387054, 16.721530251005376]</t>
+          <t>[6.518077086002855, 16.145460942362316]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.554122870929604e-06</v>
+        <v>2.165186958547061e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>8.554122870929604e-06</v>
+        <v>2.165186958547061e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>3.000580580580589</v>
+        <v>2.42378378378379</v>
       </c>
       <c r="Y4" t="n">
-        <v>-8.173223223223243</v>
+        <v>-8.752552552552581</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.17438438438442</v>
+        <v>13.60012012012016</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.37000000000006</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9000891286880039</v>
+        <v>0.3102421111875713</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9000891286880039</v>
+        <v>0.3102421111875713</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.543589364048261</v>
+        <v>4.85760610784901</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-7.719332372974259, 10.80651110107078]</t>
+          <t>[-3.6706336216534847, 13.385845837351505]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.738706955455013</v>
+        <v>0.2573559513317583</v>
       </c>
       <c r="O5" t="n">
-        <v>0.738706955455013</v>
+        <v>0.2573559513317583</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.06289474781961513</v>
+        <v>-0.2390000417145393</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.2013426640184277, 3.0755531683791975]</t>
+          <t>[-3.320842684875698, 2.8428426014466193]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.967982442470261</v>
+        <v>0.8765773364162728</v>
       </c>
       <c r="S5" t="n">
-        <v>0.967982442470261</v>
+        <v>0.8765773364162728</v>
       </c>
       <c r="T5" t="n">
-        <v>14.06314674696615</v>
+        <v>14.82971449475139</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[9.127655051106979, 18.99863844282533]</t>
+          <t>[10.229137672249163, 19.43029131725362]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7.608698722183505e-07</v>
+        <v>5.787139834012578e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>7.608698722183505e-07</v>
+        <v>5.787139834012578e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2239239239239232</v>
+        <v>0.8528128128128181</v>
       </c>
       <c r="Y5" t="n">
-        <v>-10.94987987987991</v>
+        <v>-10.14398398398401</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.39772772772776</v>
+        <v>11.84960960960965</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.37000000000006</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02414993546302058</v>
+        <v>0.3652215850426753</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02414993546302058</v>
+        <v>0.3652215850426753</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>9.219371135681012</v>
+        <v>4.9672013183825</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1.2786411015296686, 17.160101169832355]</t>
+          <t>[-4.498429289065237, 14.432831925830238]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.02386823935811799</v>
+        <v>0.2961871954310624</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02386823935811799</v>
+        <v>0.2961871954310624</v>
       </c>
       <c r="P6" t="n">
-        <v>1.352237078121732</v>
+        <v>0.3333421634439615</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.18239476867688253, 2.5220793875665812]</t>
+          <t>[-2.735921530153274, 3.402605857041197]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0244587105114118</v>
+        <v>0.8278379000670488</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0244587105114118</v>
+        <v>0.8278379000670488</v>
       </c>
       <c r="T6" t="n">
-        <v>11.11154197109325</v>
+        <v>11.4202845781284</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.636015762559811, 15.58706817962668]</t>
+          <t>[6.402554004525374, 16.438015151731424]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>9.184307367293698e-06</v>
+        <v>3.622517375045931e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>9.184307367293698e-06</v>
+        <v>3.622517375045931e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>17.55563563563569</v>
+        <v>21.23055055055061</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.39065065065068</v>
+        <v>10.27863863863867</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.72062062062069</v>
+        <v>32.18246246246256</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.37000000000006</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1769628928118087</v>
+        <v>0.651959051844208</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1769628928118087</v>
+        <v>0.651959051844208</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.691505783093394</v>
+        <v>3.14059897754187</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.9002883131789439, 15.283299879365732]</t>
+          <t>[-6.103271765551769, 12.38446972063551]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1237389399930273</v>
+        <v>0.4973010489288039</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1237389399930273</v>
+        <v>0.4973010489288039</v>
       </c>
       <c r="P7" t="n">
-        <v>1.616395018964118</v>
+        <v>0.698131700797731</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.3144737390980774, 3.5472637770263136]</t>
+          <t>[-2.440316215401081, 3.836579616996543]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.09870421753857106</v>
+        <v>0.6562833733890454</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09870421753857106</v>
+        <v>0.6562833733890454</v>
       </c>
       <c r="T7" t="n">
-        <v>13.38380237383841</v>
+        <v>13.15658088316049</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.49733038111551, 18.270274366561317]</t>
+          <t>[8.355838133902196, 17.957323632418785]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.620089653986412e-06</v>
+        <v>1.602706718450975e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.620089653986412e-06</v>
+        <v>1.602706718450975e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>16.6151551551552</v>
+        <v>19.92888888888895</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.740690690690712</v>
+        <v>8.730110110110138</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.48961961961968</v>
+        <v>31.12766766766776</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.37000000000006</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4001247591866852</v>
+        <v>0.08179803100931138</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4001247591866852</v>
+        <v>0.08179803100931138</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.410420120135781</v>
+        <v>8.849405869473443</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-4.398691343667128, 13.21953158393869]</t>
+          <t>[-1.264053272447267, 18.962865011394154]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3186577305256568</v>
+        <v>0.08479883473358951</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3186577305256568</v>
+        <v>0.08479883473358951</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4465527095192696</v>
+        <v>1.239026532046425</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.660447832769735, 3.553553251808274]</t>
+          <t>[-0.3836579616996545, 2.861711025792504]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7735464148293367</v>
+        <v>0.1310754709329189</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7735464148293367</v>
+        <v>0.1310754709329189</v>
       </c>
       <c r="T8" t="n">
-        <v>12.92221519029141</v>
+        <v>15.52389541016619</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.270887482752443, 17.573542897830368]</t>
+          <t>[10.196244759387312, 20.851546060945076]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.239187983337331e-06</v>
+        <v>4.888137885572519e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>1.239187983337331e-06</v>
+        <v>4.888137885572519e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>20.78014014014019</v>
+        <v>17.99883883883889</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.718298298298324</v>
+        <v>12.20868868868873</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.84198198198207</v>
+        <v>23.78898898898906</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.37000000000006</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2473310799969881</v>
+        <v>0.03769243442844206</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2473310799969881</v>
+        <v>0.03769243442844206</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.690442934574554</v>
+        <v>8.590843383306666</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.3258665603274995, 13.706752429476607]</t>
+          <t>[0.36591698421860386, 16.815769782394728]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1597015841345837</v>
+        <v>0.04102485623172303</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1597015841345837</v>
+        <v>0.04102485623172303</v>
       </c>
       <c r="P9" t="n">
-        <v>1.691868716347656</v>
+        <v>1.364816027685656</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.3207897042119248, 4.704527136907237]</t>
+          <t>[0.09434212172942313, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2640079019754191</v>
+        <v>0.03583769624482303</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2640079019754191</v>
+        <v>0.03583769624482303</v>
       </c>
       <c r="T9" t="n">
-        <v>13.1702919046891</v>
+        <v>14.26001660287041</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.516708323848967, 17.823875485529243]</t>
+          <t>[9.786105375779421, 18.733927829961402]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.68228589911979e-07</v>
+        <v>7.422682979374429e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>8.68228589911979e-07</v>
+        <v>7.422682979374429e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>16.34644644644649</v>
+        <v>17.54998998999004</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.620490490490505</v>
+        <v>13.01661661661666</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.07240240240247</v>
+        <v>22.08336336336343</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.37000000000006</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5900719404045789</v>
+        <v>0.2515233168200747</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5900719404045789</v>
+        <v>0.2515233168200747</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3.846730334328333</v>
+        <v>5.094519253572154</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-6.283267230149136, 13.976727898805802]</t>
+          <t>[-3.560538032391257, 13.749576539535564]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.4483660848901583</v>
+        <v>0.2420279932454703</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4483660848901583</v>
+        <v>0.2420279932454703</v>
       </c>
       <c r="P10" t="n">
-        <v>2.937184723176043</v>
+        <v>2.534658337130503</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.2012631930227693, 6.075632639374855]</t>
+          <t>[-0.5786316799404627, 5.647948354201469]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.06590515625298798</v>
+        <v>0.1080272043679462</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06590515625298798</v>
+        <v>0.1080272043679462</v>
       </c>
       <c r="T10" t="n">
-        <v>13.05064839324648</v>
+        <v>12.98578392920952</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.584011912659653, 18.517284873833304]</t>
+          <t>[8.602496782069874, 17.36907107634917]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.73656882382911e-05</v>
+        <v>3.496116649515102e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.73656882382911e-05</v>
+        <v>3.496116649515102e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>11.91275275275278</v>
+        <v>13.37569569569574</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.738948948948952</v>
+        <v>2.266686686686699</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.08655655655662</v>
+        <v>24.48470470470478</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.2900000000002</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09891395295248684</v>
+        <v>0.07676830303540405</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09891395295248684</v>
+        <v>0.07676830303540405</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.308159855454766</v>
+        <v>8.142845064166243</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.396369262047628, 14.01268897295716]</t>
+          <t>[-0.12465546215817724, 16.410345590490664]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1060986955674597</v>
+        <v>0.05340605038382318</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1060986955674597</v>
+        <v>0.05340605038382318</v>
       </c>
       <c r="P11" t="n">
-        <v>2.408868841491272</v>
+        <v>1.553500271144501</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.6981317007977328, 5.515869383780277]</t>
+          <t>[0.15723686954903648, 2.949763672739966]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1254019909022523</v>
+        <v>0.03001169337078036</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1254019909022523</v>
+        <v>0.03001169337078036</v>
       </c>
       <c r="T11" t="n">
-        <v>12.62116587016934</v>
+        <v>14.64264052410684</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.543185576678393, 16.69914616366029]</t>
+          <t>[9.787335631874884, 19.497945416338787]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.404225449253005e-07</v>
+        <v>2.423220140101989e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>1.404225449253005e-07</v>
+        <v>2.423220140101989e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>14.36100100100113</v>
+        <v>17.11007007007016</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.844224224224249</v>
+        <v>12.05895895895902</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.87777777777801</v>
+        <v>22.1611811811813</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.2900000000002</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09527663354506211</v>
+        <v>0.3955617178770351</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09527663354506211</v>
+        <v>0.3955617178770351</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.771512279159227</v>
+        <v>4.500651550776313</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.089095981054447, 14.6321205393729]</t>
+          <t>[-4.790350919766482, 13.791654021319108]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.08957744574537685</v>
+        <v>0.3344532458514802</v>
       </c>
       <c r="O12" t="n">
-        <v>0.08957744574537685</v>
+        <v>0.3344532458514802</v>
       </c>
       <c r="P12" t="n">
-        <v>2.408868841491272</v>
+        <v>2.459184639746965</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.5471843060306556, 5.3649219890132]</t>
+          <t>[-0.6792632764518469, 5.5976325559457765]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1077111742218932</v>
+        <v>0.1215277289414654</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1077111742218932</v>
+        <v>0.1215277289414654</v>
       </c>
       <c r="T12" t="n">
-        <v>13.65303092022144</v>
+        <v>14.22051796588594</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[9.310480809563046, 17.995581030879826]</t>
+          <t>[9.511930448702147, 18.929105483069733]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.001102511999363e-07</v>
+        <v>2.352138352978983e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>1.001102511999363e-07</v>
+        <v>2.352138352978983e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>14.36100100100113</v>
+        <v>13.83367367367374</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.403743743743775</v>
+        <v>2.480050050050066</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.31825825825848</v>
+        <v>25.18729729729742</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.2900000000002</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01099157282490693</v>
+        <v>0.3057884411923173</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01099157282490693</v>
+        <v>0.3057884411923173</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>10.42066781914523</v>
+        <v>5.504521958728669</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[2.243173625549211, 18.598162012741255]</t>
+          <t>[-4.547645050488854, 15.556688967946194]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.01366798998282071</v>
+        <v>0.2759280059651827</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01366798998282071</v>
+        <v>0.2759280059651827</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.943474197958005</v>
+        <v>2.534658337130504</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-4.050421759583237, -1.8365266363327724]</t>
+          <t>[-0.5912106295043857, 5.660527303765393]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.791075086827632e-06</v>
+        <v>0.1094125336178746</v>
       </c>
       <c r="S13" t="n">
-        <v>2.791075086827632e-06</v>
+        <v>0.1094125336178746</v>
       </c>
       <c r="T13" t="n">
-        <v>16.21650774506539</v>
+        <v>13.7540781340833</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[11.45958510536073, 20.973430384770047]</t>
+          <t>[8.66332799326544, 18.844828274901168]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.60986817210329e-08</v>
+        <v>2.087507589454418e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.60986817210329e-08</v>
+        <v>2.087507589454418e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>10.91063063063073</v>
+        <v>13.56064064064071</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.807487487487547</v>
+        <v>2.252522522522533</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.0137737737739</v>
+        <v>24.86875875875889</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.2900000000002</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07909747101903442</v>
+        <v>0.214525159809435</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07909747101903442</v>
+        <v>0.214525159809435</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>7.685753600440942</v>
+        <v>6.67008377731351</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.0521446826864898, 16.423651883568375]</t>
+          <t>[-3.4366841650459143, 16.776851719672933]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.08323567980569502</v>
+        <v>0.1904715143343436</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08323567980569502</v>
+        <v>0.1904715143343436</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.717053105807389</v>
+        <v>-2.591263610168157</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-4.603895540395854, -0.8302106712189246]</t>
+          <t>[-5.6919746776752, 0.5094474573388847]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.005748089306227167</v>
+        <v>0.09926552039318892</v>
       </c>
       <c r="S14" t="n">
-        <v>0.005748089306227167</v>
+        <v>0.09926552039318892</v>
       </c>
       <c r="T14" t="n">
-        <v>14.41258559340864</v>
+        <v>13.90255434701185</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[9.652804803504608, 19.172366383312678]</t>
+          <t>[8.545724798116368, 19.259383895907327]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.227995614667577e-07</v>
+        <v>4.301946546769742e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>2.227995614667577e-07</v>
+        <v>4.301946546769742e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>10.07135135135144</v>
+        <v>9.374134134134181</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.077357357357382</v>
+        <v>-1.84297297297298</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.06534534534549</v>
+        <v>20.59124124124134</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.2900000000002</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1712215853747017</v>
+        <v>0.01401623738890756</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1712215853747017</v>
+        <v>0.01401623738890756</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.19572852329351</v>
+        <v>8.273739178724101</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-2.0786837648730634, 14.470140811460084]</t>
+          <t>[0.7521235163120759, 15.795354841136128]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.138512137906444</v>
+        <v>0.03182811731469415</v>
       </c>
       <c r="O15" t="n">
-        <v>0.138512137906444</v>
+        <v>0.03182811731469415</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.761052938949233</v>
+        <v>-2.352263568453619</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-3.742237495267121, 0.22013161736865428]</t>
+          <t>[-3.107000542289005, -1.597526594618233]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.08013264357139427</v>
+        <v>1.208934561347519e-07</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08013264357139427</v>
+        <v>1.208934561347519e-07</v>
       </c>
       <c r="T15" t="n">
-        <v>12.52908313016943</v>
+        <v>10.23274169753632</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.9873441025535605, 17.070822157785297]</t>
+          <t>[6.406868099764607, 14.058615295308025]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.41612039761263e-06</v>
+        <v>2.511489779477571e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.41612039761263e-06</v>
+        <v>2.511489779477571e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>6.527727727727786</v>
+        <v>8.509529529529573</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.8159659659659715</v>
+        <v>5.779199199199228</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.87142142142154</v>
+        <v>11.23985985985992</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.2900000000002</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2442967499722883</v>
+        <v>0.1596085955095486</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2442967499722883</v>
+        <v>0.1596085955095486</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>5.192689304821591</v>
+        <v>7.566153552710228</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-2.2516144115228993, 12.63699302116608]</t>
+          <t>[-2.5364861049489313, 17.668793210369387]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1669123843576197</v>
+        <v>0.138436740055041</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1669123843576197</v>
+        <v>0.138436740055041</v>
       </c>
       <c r="P16" t="n">
-        <v>3.113290017070966</v>
+        <v>-2.64157940842385</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[0.09434212172942225, 6.132237912412509]</t>
+          <t>[-5.7674483750587395, 0.4842895582110396]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.04353557703299615</v>
+        <v>0.09564419221866749</v>
       </c>
       <c r="S16" t="n">
-        <v>0.04353557703299615</v>
+        <v>0.09564419221866749</v>
       </c>
       <c r="T16" t="n">
-        <v>14.44516767622084</v>
+        <v>15.0147781258564</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[10.048901060417279, 18.84143429202441]</t>
+          <t>[9.457790548007427, 20.57176570370538]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3.764581846255055e-08</v>
+        <v>2.084873754526484e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>3.764581846255055e-08</v>
+        <v>2.084873754526484e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>11.74990990991001</v>
+        <v>9.556156156156204</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5595195195195242</v>
+        <v>-1.751961961961973</v>
       </c>
       <c r="Z16" t="n">
-        <v>22.9403003003005</v>
+        <v>20.86427427427438</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.2900000000002</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1324219291166229</v>
+        <v>0.2558811918348656</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1324219291166229</v>
+        <v>0.2558811918348656</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>6.618769821797752</v>
+        <v>6.878425487001329</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-2.3006052432409874, 15.538144886836491]</t>
+          <t>[-3.4322208091892934, 17.189071783191952]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1419991401302028</v>
+        <v>0.1857992296383359</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1419991401302028</v>
+        <v>0.1857992296383359</v>
       </c>
       <c r="P17" t="n">
-        <v>-2.666737307551696</v>
+        <v>-2.427737265837158</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-5.415237787268893, 0.08176317216550011]</t>
+          <t>[-5.553606232472046, 0.698131700797731]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.05691049252760449</v>
+        <v>0.1247593531457014</v>
       </c>
       <c r="S17" t="n">
-        <v>0.05691049252760449</v>
+        <v>0.1247593531457014</v>
       </c>
       <c r="T17" t="n">
-        <v>11.48346140005655</v>
+        <v>14.76777494429016</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[6.86689153067125, 16.100031269441846]</t>
+          <t>[8.928187571738007, 20.60736231684232]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>8.898647052113517e-06</v>
+        <v>6.73429131747838e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>8.898647052113517e-06</v>
+        <v>6.73429131747838e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>9.884844844844931</v>
+        <v>8.782562562562607</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.303073073073076</v>
+        <v>-2.525555555555567</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.07276276276294</v>
+        <v>20.09068068068078</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_2_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_2_sawtooth_0.5_.xlsx
@@ -581,69 +581,73 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.42000000000007</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2391504818766426</v>
+        <v>0.09580932808922582</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2391504818766426</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>0.09580932808922582</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6708483349690593</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6708483349690593</v>
+      </c>
       <c r="L2" t="n">
-        <v>5.704310742170031</v>
+        <v>8.756094302961094</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.9959608391902526, 14.404582323530313]</t>
+          <t>[-1.3335957418864481, 18.845784347808635]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1933312787628836</v>
+        <v>0.08730357634970254</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1933312787628836</v>
+        <v>0.08730357634970254</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.132105460753078</v>
+        <v>-1.232737057264464</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.27055337695189, 2.0063424554457328]</t>
+          <t>[-3.018947895341543, 0.5534737808126158]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.4712762404978403</v>
+        <v>0.1713624292116149</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4712762404978403</v>
+        <v>0.1713624292116149</v>
       </c>
       <c r="T2" t="n">
-        <v>14.5014685500993</v>
+        <v>15.27160521350566</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.824268653967842, 19.178668446230752]</t>
+          <t>[9.749252203271471, 20.793958223739843]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.351918343939218e-07</v>
+        <v>1.352160945655712e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.351918343939218e-07</v>
+        <v>1.352160945655712e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>4.039639639639653</v>
+        <v>4.414414414414431</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.159139139139155</v>
+        <v>-1.981981981981987</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.23841841841846</v>
+        <v>10.81081081081085</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +671,73 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.42000000000007</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01413116465788089</v>
+        <v>0.003006325451534009</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01413116465788089</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0.003006325451534009</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6866255440990858</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6866255440990858</v>
+      </c>
       <c r="L3" t="n">
-        <v>8.095408854371842</v>
+        <v>10.51667005485984</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.8900292265941125, 15.30078848214957]</t>
+          <t>[3.2036549332100925, 17.82968517650958]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.02851592283001714</v>
+        <v>0.005808095573139882</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02851592283001714</v>
+        <v>0.005808095573139882</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.9811580659860013</v>
+        <v>-1.069210712933463</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-1.8742634850245414, -0.08805264694746118]</t>
+          <t>[-1.8113687372049263, -0.32705268866200043]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.03203605084107464</v>
+        <v>0.005727084909668001</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03203605084107464</v>
+        <v>0.005727084909668001</v>
       </c>
       <c r="T3" t="n">
-        <v>12.89347269456644</v>
+        <v>14.1522229849303</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.135909353204287, 16.651036035928584]</t>
+          <t>[10.0651098626524, 18.23933610720821]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.380695779928942e-08</v>
+        <v>1.113119840745469e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.380695779928942e-08</v>
+        <v>1.113119840745469e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>3.501021021021032</v>
+        <v>3.828828828828843</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3141941941941946</v>
+        <v>1.171171171171175</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.687847847847869</v>
+        <v>6.486486486486512</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +761,73 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.42000000000007</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5378810690737265</v>
+        <v>0.5430320791618835</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5378810690737265</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>0.5430320791618835</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.06523928539555834</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.06523928539555834</v>
+      </c>
       <c r="L4" t="n">
-        <v>3.731189148279495</v>
+        <v>3.936580943593042</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-5.7644181687102645, 13.226796465269256]</t>
+          <t>[-5.239165106694455, 13.11232699388054]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.4328515901073988</v>
+        <v>0.3921204947444967</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4328515901073988</v>
+        <v>0.3921204947444967</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.6792632764518469</v>
+        <v>0.006289474781961069</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.8114217178686984, 2.4528951649650046]</t>
+          <t>[-3.1195794918529276, 3.1321584414168497]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.6643499444344561</v>
+        <v>0.9967844766452396</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6643499444344561</v>
+        <v>0.9967844766452396</v>
       </c>
       <c r="T4" t="n">
-        <v>11.33176901418259</v>
+        <v>14.65421301161778</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.518077086002855, 16.145460942362316]</t>
+          <t>[9.472045798990013, 19.83638022424555]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.165186958547061e-05</v>
+        <v>8.821691745986016e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>2.165186958547061e-05</v>
+        <v>8.821691745986016e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>2.42378378378379</v>
+        <v>22.47747747747756</v>
       </c>
       <c r="Y4" t="n">
-        <v>-8.752552552552581</v>
+        <v>11.28378378378383</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.60012012012016</v>
+        <v>33.67117117117129</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +851,73 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.42000000000007</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3102421111875713</v>
+        <v>0.8008521242281976</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3102421111875713</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>0.8008521242281976</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" t="n">
-        <v>4.85760610784901</v>
+        <v>1.884698016761504</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.6706336216534847, 13.385845837351505]</t>
+          <t>[-5.777847489611867, 9.547243523134874]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2573559513317583</v>
+        <v>0.6227328480546377</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2573559513317583</v>
+        <v>0.6227328480546377</v>
       </c>
       <c r="P5" t="n">
         <v>-0.2390000417145393</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.320842684875698, 2.8428426014466193]</t>
+          <t>[-3.3774479579133523, 2.8994478744842738]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8765773364162728</v>
+        <v>0.8787854517996601</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8765773364162728</v>
+        <v>0.8787854517996601</v>
       </c>
       <c r="T5" t="n">
-        <v>14.82971449475139</v>
+        <v>10.36269511995123</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[10.229137672249163, 19.43029131725362]</t>
+          <t>[6.2312284261089665, 14.4941618137935]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.787139834012578e-08</v>
+        <v>7.738991099737191e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>5.787139834012578e-08</v>
+        <v>7.738991099737191e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8528128128128181</v>
+        <v>0.8558558558558609</v>
       </c>
       <c r="Y5" t="n">
-        <v>-10.14398398398401</v>
+        <v>-10.38288288288292</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.84960960960965</v>
+        <v>12.09459459459464</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +941,73 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.42000000000007</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3652215850426753</v>
+        <v>0.270682270681499</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3652215850426753</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>0.270682270681499</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8541771675296963</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8541771675296963</v>
+      </c>
       <c r="L6" t="n">
-        <v>4.9672013183825</v>
+        <v>5.539082229724518</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.498429289065237, 14.432831925830238]</t>
+          <t>[-3.033357952566404, 14.11152241201544]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2961871954310624</v>
+        <v>0.1997408554686959</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2961871954310624</v>
+        <v>0.1997408554686959</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3333421634439615</v>
+        <v>0.1823947686768852</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.735921530153274, 3.402605857041197]</t>
+          <t>[-2.603842559732081, 2.9686320970858513]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8278379000670488</v>
+        <v>0.8956916800730386</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8278379000670488</v>
+        <v>0.8956916800730386</v>
       </c>
       <c r="T6" t="n">
-        <v>11.4202845781284</v>
+        <v>14.02836033328676</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.402554004525374, 16.438015151731424]</t>
+          <t>[9.106272866695381, 18.95044779987813]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.622517375045931e-05</v>
+        <v>7.572656623988649e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.622517375045931e-05</v>
+        <v>7.572656623988649e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>21.23055055055061</v>
+        <v>21.84684684684692</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.27863863863867</v>
+        <v>11.86936936936941</v>
       </c>
       <c r="Z6" t="n">
-        <v>32.18246246246256</v>
+        <v>31.82432432432444</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1031,73 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.42000000000007</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.651959051844208</v>
+        <v>0.08325498691572553</v>
       </c>
       <c r="I7" t="n">
-        <v>0.651959051844208</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>0.08325498691572553</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1429060673871149</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1429060673871149</v>
+      </c>
       <c r="L7" t="n">
-        <v>3.14059897754187</v>
+        <v>7.067113231951788</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-6.103271765551769, 12.38446972063551]</t>
+          <t>[-1.3333867198421654, 15.467613183745742]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.4973010489288039</v>
+        <v>0.09709836333063881</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4973010489288039</v>
+        <v>0.09709836333063881</v>
       </c>
       <c r="P7" t="n">
-        <v>0.698131700797731</v>
+        <v>0.4717106086471148</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.440316215401081, 3.836579616996543]</t>
+          <t>[-1.484316048542925, 2.4277372658371545]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.6562833733890454</v>
+        <v>0.6295250775247943</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6562833733890454</v>
+        <v>0.6295250775247943</v>
       </c>
       <c r="T7" t="n">
-        <v>13.15658088316049</v>
+        <v>14.11909363878492</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.355838133902196, 17.957323632418785]</t>
+          <t>[9.680313639526055, 18.557873638043787]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.602706718450975e-06</v>
+        <v>7.764287768274869e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>1.602706718450975e-06</v>
+        <v>7.764287768274869e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>19.92888888888895</v>
+        <v>20.81081081081089</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.730110110110138</v>
+        <v>13.80630630630636</v>
       </c>
       <c r="Z7" t="n">
-        <v>31.12766766766776</v>
+        <v>27.81531531531541</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1121,73 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.42000000000007</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08179803100931138</v>
+        <v>0.08704907247303106</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08179803100931138</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>0.08704907247303106</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8996155098707511</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8996155098707511</v>
+      </c>
       <c r="L8" t="n">
-        <v>8.849405869473443</v>
+        <v>8.039347890928976</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.264053272447267, 18.962865011394154]</t>
+          <t>[-0.9279825227101632, 17.006678304568116]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.08479883473358951</v>
+        <v>0.07766122442212287</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08479883473358951</v>
+        <v>0.07766122442212287</v>
       </c>
       <c r="P8" t="n">
-        <v>1.239026532046425</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.3836579616996545, 2.861711025792504]</t>
+          <t>[-0.30818426431611545, 2.962342622303889]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1310754709329189</v>
+        <v>0.1091266666537087</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1310754709329189</v>
+        <v>0.1091266666537087</v>
       </c>
       <c r="T8" t="n">
-        <v>15.52389541016619</v>
+        <v>15.0738917205391</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[10.196244759387312, 20.851546060945076]</t>
+          <t>[10.170458341209848, 19.977325099868352]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.888137885572519e-07</v>
+        <v>1.620847147609794e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>4.888137885572519e-07</v>
+        <v>1.620847147609794e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>17.99883883883889</v>
+        <v>17.74774774774781</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.20868868868873</v>
+        <v>11.89189189189193</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.78898898898906</v>
+        <v>23.60360360360368</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1211,73 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.42000000000007</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03769243442844206</v>
+        <v>0.3238396947829342</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03769243442844206</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>0.3238396947829342</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5071180614860696</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5071180614860696</v>
+      </c>
       <c r="L9" t="n">
-        <v>8.590843383306666</v>
+        <v>4.646260074247452</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.36591698421860386, 16.815769782394728]</t>
+          <t>[-3.0256777573989915, 12.318197905893895]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.04102485623172303</v>
+        <v>0.2289041662153219</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04102485623172303</v>
+        <v>0.2289041662153219</v>
       </c>
       <c r="P9" t="n">
-        <v>1.364816027685656</v>
+        <v>1.440289725069195</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.09434212172942313, 2.6352899336418885]</t>
+          <t>[-1.6604213424378491, 4.541000792576239]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.03583769624482303</v>
+        <v>0.3544949325880709</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03583769624482303</v>
+        <v>0.3544949325880709</v>
       </c>
       <c r="T9" t="n">
-        <v>14.26001660287041</v>
+        <v>15.64805394820089</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.786105375779421, 18.733927829961402]</t>
+          <t>[11.41937550662287, 19.87673238977891]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.422682979374429e-08</v>
+        <v>2.179571856331108e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>7.422682979374429e-08</v>
+        <v>2.179571856331108e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>17.54998998999004</v>
+        <v>17.3423423423424</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.01661661661666</v>
+        <v>6.238738738738757</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.08336336336343</v>
+        <v>28.44594594594605</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1301,73 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.42000000000007</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2515233168200747</v>
+        <v>0.3407062154718423</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2515233168200747</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>0.3407062154718423</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.08365318398911981</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08365318398911981</v>
+      </c>
       <c r="L10" t="n">
-        <v>5.094519253572154</v>
+        <v>5.583720513164975</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.560538032391257, 13.749576539535564]</t>
+          <t>[-4.150548185232536, 15.317989211562486]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2420279932454703</v>
+        <v>0.2540574244726037</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2420279932454703</v>
+        <v>0.2540574244726037</v>
       </c>
       <c r="P10" t="n">
-        <v>2.534658337130503</v>
+        <v>2.333395144107734</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.5786316799404627, 5.647948354201469]</t>
+          <t>[-0.779894872963232, 5.4466851611787]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1080272043679462</v>
+        <v>0.1381458078625153</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1080272043679462</v>
+        <v>0.1381458078625153</v>
       </c>
       <c r="T10" t="n">
-        <v>12.98578392920952</v>
+        <v>18.04353927186597</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.602496782069874, 17.36907107634917]</t>
+          <t>[12.646884629517615, 23.44019391421432]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.496116649515102e-07</v>
+        <v>2.529138831697253e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>3.496116649515102e-07</v>
+        <v>2.529138831697253e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>13.37569569569574</v>
+        <v>14.14414414414419</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.266686686686699</v>
+        <v>2.995495495495508</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.48470470470478</v>
+        <v>25.29279279279288</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1391,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.73000000000011</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07676830303540405</v>
+        <v>0.1241403484863229</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07676830303540405</v>
+        <v>0.1241403484863229</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>8.142845064166243</v>
+        <v>6.431366805591892</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.12465546215817724, 16.410345590490664]</t>
+          <t>[-1.4190830383657556, 14.28181664954954]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05340605038382318</v>
+        <v>0.1059017575306238</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05340605038382318</v>
+        <v>0.1059017575306238</v>
       </c>
       <c r="P11" t="n">
-        <v>1.553500271144501</v>
+        <v>3.012658420559581</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.15723686954903648, 2.949763672739966]</t>
+          <t>[1.3522370781217319, 4.67307976299743]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.03001169337078036</v>
+        <v>0.0006709976358392211</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03001169337078036</v>
+        <v>0.0006709976358392211</v>
       </c>
       <c r="T11" t="n">
-        <v>14.64264052410684</v>
+        <v>12.91727318291639</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.787335631874884, 19.497945416338787]</t>
+          <t>[8.526904039426292, 17.307642326406494]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.423220140101989e-07</v>
+        <v>4.022457533725543e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>2.423220140101989e-07</v>
+        <v>4.022457533725543e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>17.11007007007016</v>
+        <v>12.40920920920936</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.05895895895902</v>
+        <v>6.109149149149221</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.1611811811813</v>
+        <v>18.7092692692695</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1477,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.73000000000011</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3955617178770351</v>
+        <v>0.3970549524608047</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3955617178770351</v>
+        <v>0.3970549524608047</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.500651550776313</v>
+        <v>5.261809675014395</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-4.790350919766482, 13.791654021319108]</t>
+          <t>[-4.8548667840553525, 15.378486134084142]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.3344532458514802</v>
+        <v>0.3004353683679253</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3344532458514802</v>
+        <v>0.3004353683679253</v>
       </c>
       <c r="P12" t="n">
-        <v>2.459184639746965</v>
+        <v>2.849132076228581</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.6792632764518469, 5.5976325559457765]</t>
+          <t>[-0.22013161736865428, 5.918395769825817]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1215277289414654</v>
+        <v>0.06804741833708361</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1215277289414654</v>
+        <v>0.06804741833708361</v>
       </c>
       <c r="T12" t="n">
-        <v>14.22051796588594</v>
+        <v>15.32481150607748</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[9.511930448702147, 18.929105483069733]</t>
+          <t>[9.853550190556668, 20.7960728215983]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.352138352978983e-07</v>
+        <v>1.060287017073946e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>2.352138352978983e-07</v>
+        <v>1.060287017073946e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>13.83367367367374</v>
+        <v>13.02966966966983</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.480050050050066</v>
+        <v>1.38410410410412</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.18729729729742</v>
+        <v>24.67523523523553</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1563,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.73000000000011</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3057884411923173</v>
+        <v>0.1712123708205203</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3057884411923173</v>
+        <v>0.1712123708205203</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.504521958728669</v>
+        <v>6.006265294685614</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-4.547645050488854, 15.556688967946194]</t>
+          <t>[-2.013091107964737, 14.025621697335964]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2759280059651827</v>
+        <v>0.1384148435689265</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2759280059651827</v>
+        <v>0.1384148435689265</v>
       </c>
       <c r="P13" t="n">
-        <v>2.534658337130504</v>
+        <v>-2.930895248394081</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.5912106295043857, 5.660527303765393]</t>
+          <t>[-5.7234220515850085, -0.13836844520315417]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1094125336178746</v>
+        <v>0.04009911733637495</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1094125336178746</v>
+        <v>0.04009911733637495</v>
       </c>
       <c r="T13" t="n">
-        <v>13.7540781340833</v>
+        <v>12.56032057244385</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[8.66332799326544, 18.844828274901168]</t>
+          <t>[8.083501261324958, 17.037139883562737]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.087507589454418e-06</v>
+        <v>1.026924025149256e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>2.087507589454418e-06</v>
+        <v>1.026924025149256e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>13.56064064064071</v>
+        <v>11.1205605605607</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.252522522522533</v>
+        <v>0.5250050050050117</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.86875875875889</v>
+        <v>21.71611611611638</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1649,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.73000000000011</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.214525159809435</v>
+        <v>0.2475853181628523</v>
       </c>
       <c r="I14" t="n">
-        <v>0.214525159809435</v>
+        <v>0.2475853181628523</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.67008377731351</v>
+        <v>5.40470852725738</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-3.4366841650459143, 16.776851719672933]</t>
+          <t>[-3.251982712563599, 14.06139976707836]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1904715143343436</v>
+        <v>0.2150657814877619</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1904715143343436</v>
+        <v>0.2150657814877619</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.591263610168157</v>
+        <v>-2.301947770197927</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-5.6919746776752, 0.5094474573388847]</t>
+          <t>[-5.434106211614778, 0.830210671218925]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.09926552039318892</v>
+        <v>0.1457757359558227</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09926552039318892</v>
+        <v>0.1457757359558227</v>
       </c>
       <c r="T14" t="n">
-        <v>13.90255434701185</v>
+        <v>14.17114663027515</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.545724798116368, 19.259383895907327]</t>
+          <t>[9.637664898225225, 18.704628362325074]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.301946546769742e-06</v>
+        <v>1.134447960016161e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>4.301946546769742e-06</v>
+        <v>1.134447960016161e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>9.374134134134181</v>
+        <v>8.73417417417428</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.84297297297298</v>
+        <v>-3.15003003003007</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.59124124124134</v>
+        <v>20.61837837837863</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1735,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.73000000000011</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01401623738890756</v>
+        <v>0.03764563688407918</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01401623738890756</v>
+        <v>0.03764563688407918</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>8.273739178724101</v>
+        <v>7.948177040899179</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0.7521235163120759, 15.795354841136128]</t>
+          <t>[0.261102275738482, 15.635251806059875]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.03182811731469415</v>
+        <v>0.04300973927796314</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03182811731469415</v>
+        <v>0.04300973927796314</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.352263568453619</v>
+        <v>-2.717053105807389</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-3.107000542289005, -1.597526594618233]</t>
+          <t>[-4.138474406530699, -1.2956318050840792]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.208934561347519e-07</v>
+        <v>0.0003707758246764836</v>
       </c>
       <c r="S15" t="n">
-        <v>1.208934561347519e-07</v>
+        <v>0.0003707758246764836</v>
       </c>
       <c r="T15" t="n">
-        <v>10.23274169753632</v>
+        <v>11.90344197958987</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[6.406868099764607, 14.058615295308025]</t>
+          <t>[7.636502990562975, 16.17038096861676]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.511489779477571e-06</v>
+        <v>1.145335804864089e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>2.511489779477571e-06</v>
+        <v>1.145335804864089e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>8.509529529529573</v>
+        <v>10.30918918918931</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.779199199199228</v>
+        <v>4.915955955956015</v>
       </c>
       <c r="Z15" t="n">
-        <v>11.23985985985992</v>
+        <v>15.70242242242261</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1821,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.73000000000011</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1596085955095486</v>
+        <v>0.0749849044432096</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1596085955095486</v>
+        <v>0.0749849044432096</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>7.566153552710228</v>
+        <v>7.388620249301019</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-2.5364861049489313, 17.668793210369387]</t>
+          <t>[-0.8016690678927896, 15.57890956649483]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.138436740055041</v>
+        <v>0.07588620966360171</v>
       </c>
       <c r="O16" t="n">
-        <v>0.138436740055041</v>
+        <v>0.07588620966360171</v>
       </c>
       <c r="P16" t="n">
-        <v>-2.64157940842385</v>
+        <v>-2.956053147521927</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-5.7674483750587395, 0.4842895582110396]</t>
+          <t>[-4.490684994320546, -1.4214213007233094]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.09564419221866749</v>
+        <v>0.0003385085881792982</v>
       </c>
       <c r="S16" t="n">
-        <v>0.09564419221866749</v>
+        <v>0.0003385085881792982</v>
       </c>
       <c r="T16" t="n">
-        <v>15.0147781258564</v>
+        <v>14.34045110528341</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[9.457790548007427, 20.57176570370538]</t>
+          <t>[9.835661186881243, 18.845241023685585]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.084873754526484e-06</v>
+        <v>7.630017151427637e-08</v>
       </c>
       <c r="W16" t="n">
-        <v>2.084873754526484e-06</v>
+        <v>7.630017151427637e-08</v>
       </c>
       <c r="X16" t="n">
-        <v>9.556156156156204</v>
+        <v>11.21601601601615</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.751961961961973</v>
+        <v>5.393233233233294</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.86427427427438</v>
+        <v>17.038798798799</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1907,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.73000000000011</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2558811918348656</v>
+        <v>0.3362466385987046</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2558811918348656</v>
+        <v>0.3362466385987046</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>6.878425487001329</v>
+        <v>4.347108081373177</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-3.4322208091892934, 17.189071783191952]</t>
+          <t>[-3.136314862761134, 11.830531025507488]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1857992296383359</v>
+        <v>0.2481646728155418</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1857992296383359</v>
+        <v>0.2481646728155418</v>
       </c>
       <c r="P17" t="n">
-        <v>-2.427737265837158</v>
+        <v>3.08813211794312</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-5.553606232472046, 0.698131700797731]</t>
+          <t>[0.15723686954903826, 6.019027366337201]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.1247593531457014</v>
+        <v>0.03936286851867088</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1247593531457014</v>
+        <v>0.03936286851867088</v>
       </c>
       <c r="T17" t="n">
-        <v>14.76777494429016</v>
+        <v>11.63302723832335</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[8.928187571738007, 20.60736231684232]</t>
+          <t>[7.47727040135665, 15.788784075290051]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>6.73429131747838e-06</v>
+        <v>1.072764050258357e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>6.73429131747838e-06</v>
+        <v>1.072764050258357e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>8.782562562562607</v>
+        <v>12.12284284284299</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.525555555555567</v>
+        <v>1.002282282282295</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.09068068068078</v>
+        <v>23.24340340340369</v>
       </c>
     </row>
   </sheetData>
